--- a/data/trans_orig/P24D-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>65915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53878</v>
+        <v>55010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79143</v>
+        <v>78451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.438972097855682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3588093837852336</v>
+        <v>0.3663454891932365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5270650255783931</v>
+        <v>0.5224561209884475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>34272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25750</v>
+        <v>25626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42956</v>
+        <v>43651</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3800085869149427</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2855135094497995</v>
+        <v>0.2841474953585431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4762943259491439</v>
+        <v>0.4840031482422575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -786,19 +786,19 @@
         <v>100187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>84090</v>
+        <v>85219</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117715</v>
+        <v>116113</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4168465396142269</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3498713029504351</v>
+        <v>0.3545714518825971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4897755663325905</v>
+        <v>0.4831088796896488</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>84243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71015</v>
+        <v>71707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96280</v>
+        <v>95148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.561027902144318</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4729349744216069</v>
+        <v>0.4775438790115525</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6411906162147664</v>
+        <v>0.6336545108067635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -836,19 +836,19 @@
         <v>55915</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47231</v>
+        <v>46536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64437</v>
+        <v>64561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6199914130850573</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5237056740508561</v>
+        <v>0.5159968517577426</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7144864905502005</v>
+        <v>0.7158525046414568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -857,19 +857,19 @@
         <v>140158</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122630</v>
+        <v>124232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>156255</v>
+        <v>155126</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5831534603857731</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5102244336674095</v>
+        <v>0.5168911203103512</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6501286970495649</v>
+        <v>0.6454285481174029</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>43904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32984</v>
+        <v>32700</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55963</v>
+        <v>55379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3248114348363092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.244024417160766</v>
+        <v>0.2419200241371565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.414024764549114</v>
+        <v>0.4097025286110231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -982,19 +982,19 @@
         <v>47892</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37851</v>
+        <v>37106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61167</v>
+        <v>59296</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3630195513879239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2869113557386974</v>
+        <v>0.2812582417820463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4636394572542888</v>
+        <v>0.4494601083159815</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -1003,19 +1003,19 @@
         <v>91796</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75896</v>
+        <v>76645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107063</v>
+        <v>107928</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3436836282125806</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2841535198325593</v>
+        <v>0.2869586500230041</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4008430215057873</v>
+        <v>0.4040808574650983</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>91264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79205</v>
+        <v>79789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102184</v>
+        <v>102468</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6751885651636909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5859752354508859</v>
+        <v>0.5902974713889771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7559755828392339</v>
+        <v>0.7580799758628435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -1053,19 +1053,19 @@
         <v>84035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>70760</v>
+        <v>72631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94076</v>
+        <v>94821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.636980448612076</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5363605427457113</v>
+        <v>0.5505398916840185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7130886442613029</v>
+        <v>0.7187417582179537</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>171</v>
@@ -1074,19 +1074,19 @@
         <v>175299</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>160032</v>
+        <v>159167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>191199</v>
+        <v>190450</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6563163717874194</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5991569784942129</v>
+        <v>0.5959191425349017</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7158464801674407</v>
+        <v>0.713041349976996</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>81478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66697</v>
+        <v>66754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96856</v>
+        <v>95831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3208224217082805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2626215255836393</v>
+        <v>0.262846311256496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3813741506925196</v>
+        <v>0.3773383348165515</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>15747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9845</v>
+        <v>9321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22329</v>
+        <v>22083</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.357022348030718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2232114200928635</v>
+        <v>0.2113216443525894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5062650085618424</v>
+        <v>0.5006747307809341</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -1220,19 +1220,19 @@
         <v>97225</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80346</v>
+        <v>80734</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113814</v>
+        <v>113546</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3261789111795125</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2695518511471152</v>
+        <v>0.2708542555199954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.381833912753707</v>
+        <v>0.3809321671199337</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>172489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>157111</v>
+        <v>158136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>187270</v>
+        <v>187213</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6791775782917195</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6186258493074804</v>
+        <v>0.6226616651834486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7373784744163607</v>
+        <v>0.7371536887435041</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1270,19 +1270,19 @@
         <v>28359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21777</v>
+        <v>22023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34261</v>
+        <v>34785</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.642977651969282</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4937349914381575</v>
+        <v>0.4993252692190659</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7767885799071365</v>
+        <v>0.7886783556474105</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>198</v>
@@ -1291,19 +1291,19 @@
         <v>200848</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184259</v>
+        <v>184527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>217727</v>
+        <v>217339</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6738210888204875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6181660872462936</v>
+        <v>0.6190678328800664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7304481488528848</v>
+        <v>0.7291457444800046</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>172047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152512</v>
+        <v>152003</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194750</v>
+        <v>195034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3057351160738108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2710206118101364</v>
+        <v>0.2701165500986102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3460783392475263</v>
+        <v>0.346584048487471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -1416,19 +1416,19 @@
         <v>86441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71853</v>
+        <v>72580</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100740</v>
+        <v>101931</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3608420455359334</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2999472943970497</v>
+        <v>0.3029791737980022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4205338744933403</v>
+        <v>0.425507007054119</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>251</v>
@@ -1437,19 +1437,19 @@
         <v>258488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>232940</v>
+        <v>234156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283799</v>
+        <v>284517</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3221893718826748</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2903455508793936</v>
+        <v>0.2918604581572988</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3537377373872059</v>
+        <v>0.354632356416458</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>390686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367983</v>
+        <v>367699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>410221</v>
+        <v>410730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6942648839261892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6539216607524737</v>
+        <v>0.6534159515125291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7289793881898636</v>
+        <v>0.7298834499013898</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1487,19 +1487,19 @@
         <v>153112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138813</v>
+        <v>137622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>167700</v>
+        <v>166973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6391579544640666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5794661255066597</v>
+        <v>0.5744929929458812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7000527056029502</v>
+        <v>0.697020826201998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>531</v>
@@ -1508,19 +1508,19 @@
         <v>543798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>518487</v>
+        <v>517769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>569346</v>
+        <v>568130</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6778106281173252</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.646262262612794</v>
+        <v>0.6453676435835419</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7096544491206063</v>
+        <v>0.7081395418427012</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>50810</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39030</v>
+        <v>38611</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64461</v>
+        <v>64195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2708087737719237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2080250241064</v>
+        <v>0.2057887134948541</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3435665854062161</v>
+        <v>0.3421470621646369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1633,19 +1633,19 @@
         <v>59485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47213</v>
+        <v>46494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71829</v>
+        <v>72655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3333278550572941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2645599616868921</v>
+        <v>0.2605344819656836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4024975144836619</v>
+        <v>0.4071253306807752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1654,19 +1654,19 @@
         <v>110295</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92247</v>
+        <v>93759</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>128372</v>
+        <v>129982</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3012856020552422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2519838582534699</v>
+        <v>0.2561157378711023</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3506650751502449</v>
+        <v>0.3550633961555835</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>136814</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123163</v>
+        <v>123429</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148594</v>
+        <v>149013</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7291912262280763</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6564334145937838</v>
+        <v>0.6578529378353632</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7919749758936</v>
+        <v>0.7942112865051459</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -1704,19 +1704,19 @@
         <v>118973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106629</v>
+        <v>105803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131245</v>
+        <v>131964</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.666672144942706</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5975024855163381</v>
+        <v>0.5928746693192247</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.735440038313108</v>
+        <v>0.7394655180343164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>245</v>
@@ -1725,19 +1725,19 @@
         <v>255787</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237710</v>
+        <v>236100</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273835</v>
+        <v>272323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6987143979447578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.649334924849755</v>
+        <v>0.6449366038444164</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7480161417465299</v>
+        <v>0.7438842621288976</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1899</v>
+        <v>2019</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11435</v>
+        <v>11523</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06264139199669752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02165316377070111</v>
+        <v>0.02301763119169317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.130377691328898</v>
+        <v>0.1313871212092218</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -1850,19 +1850,19 @@
         <v>54174</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43700</v>
+        <v>43054</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66925</v>
+        <v>67566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3202293042587924</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2583165529014586</v>
+        <v>0.2544980731301214</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3956072516242844</v>
+        <v>0.3993919949100549</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1871,19 +1871,19 @@
         <v>59667</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48013</v>
+        <v>46263</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73769</v>
+        <v>74081</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2322809464461529</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1869130636125042</v>
+        <v>0.1800969894222664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2871790651909602</v>
+        <v>0.288390327955415</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>82211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76270</v>
+        <v>76182</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85806</v>
+        <v>85686</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9373586080033025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8696223086711019</v>
+        <v>0.8686128787907786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9783468362292989</v>
+        <v>0.9769823688083069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -1921,19 +1921,19 @@
         <v>114997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102246</v>
+        <v>101605</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>125471</v>
+        <v>126117</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6797706957412075</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6043927483757155</v>
+        <v>0.6006080050899441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7416834470985414</v>
+        <v>0.7455019268698783</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>201</v>
@@ -1942,19 +1942,19 @@
         <v>197209</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>183107</v>
+        <v>182795</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>208863</v>
+        <v>210613</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7677190535538471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7128209348090396</v>
+        <v>0.711609672044585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8130869363874956</v>
+        <v>0.8199030105777335</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>419649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>383738</v>
+        <v>385224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>453466</v>
+        <v>453374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3046773695761015</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2786048347381277</v>
+        <v>0.2796839352831189</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3292295935687204</v>
+        <v>0.3291628811081593</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -2067,19 +2067,19 @@
         <v>298010</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>270313</v>
+        <v>266920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326684</v>
+        <v>324737</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3492024685193055</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.316748267519099</v>
+        <v>0.3127725012749094</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3828027907329526</v>
+        <v>0.3805212330648878</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>695</v>
@@ -2088,19 +2088,19 @@
         <v>717659</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>673472</v>
+        <v>674416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>764801</v>
+        <v>760172</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3217109466362632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3019030025806843</v>
+        <v>0.3023262324488888</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3428436163390293</v>
+        <v>0.340768526999678</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>957707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>923890</v>
+        <v>923982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>993618</v>
+        <v>992132</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6953226304238985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6707704064312802</v>
+        <v>0.6708371188918404</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7213951652618724</v>
+        <v>0.720316064716881</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>547</v>
@@ -2138,19 +2138,19 @@
         <v>555391</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>526717</v>
+        <v>528664</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>583088</v>
+        <v>586481</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6507975314806945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6171972092670475</v>
+        <v>0.6194787669351123</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6832517324809009</v>
+        <v>0.6872274987250907</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1483</v>
@@ -2159,19 +2159,19 @@
         <v>1513098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1465956</v>
+        <v>1470585</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1557285</v>
+        <v>1556341</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6782890533637368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6571563836609708</v>
+        <v>0.659231473000322</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6980969974193157</v>
+        <v>0.6976737675511114</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>82480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70899</v>
+        <v>69833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95762</v>
+        <v>95876</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5561481670969588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4780620277535917</v>
+        <v>0.4708742540137876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.645708739350302</v>
+        <v>0.646476936189367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2526,19 +2526,19 @@
         <v>52204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41758</v>
+        <v>42526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62570</v>
+        <v>63450</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5279626411780792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4223138423708648</v>
+        <v>0.4300838194214527</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6327906025839595</v>
+        <v>0.6416953524497842</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -2547,19 +2547,19 @@
         <v>134685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119183</v>
+        <v>118271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151945</v>
+        <v>151273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5448733709293379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.482161081972593</v>
+        <v>0.4784730595245299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6146998165755303</v>
+        <v>0.6119819354506809</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>65826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52544</v>
+        <v>52430</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77407</v>
+        <v>78473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4438518329030412</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3542912606496981</v>
+        <v>0.353523063810633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5219379722464084</v>
+        <v>0.5291257459862124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -2597,19 +2597,19 @@
         <v>46675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36309</v>
+        <v>35429</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57121</v>
+        <v>56353</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4720373588219207</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3672093974160407</v>
+        <v>0.3583046475502161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5776861576291352</v>
+        <v>0.5699161805785474</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>108</v>
@@ -2618,19 +2618,19 @@
         <v>112500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>95240</v>
+        <v>95912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128002</v>
+        <v>128914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4551266290706621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.385300183424469</v>
+        <v>0.388018064549319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5178389180274069</v>
+        <v>0.5215269404754702</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>80320</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65295</v>
+        <v>68211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93650</v>
+        <v>95170</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5337761164053928</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4339261057697505</v>
+        <v>0.453303116113978</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6223585194605048</v>
+        <v>0.6324589216581533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -2743,19 +2743,19 @@
         <v>75734</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63992</v>
+        <v>63234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86939</v>
+        <v>85607</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6118025380369426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5169453210035795</v>
+        <v>0.5108245446554917</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7023195162289066</v>
+        <v>0.6915636986788539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -2764,19 +2764,19 @@
         <v>156054</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138736</v>
+        <v>137892</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173169</v>
+        <v>174043</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5689930990801264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5058500719217327</v>
+        <v>0.5027705077947703</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6313934935803733</v>
+        <v>0.6345824791008812</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>70156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56826</v>
+        <v>55306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85181</v>
+        <v>82265</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4662238835946072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3776414805394952</v>
+        <v>0.3675410783418467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5660738942302495</v>
+        <v>0.546696883886022</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -2814,19 +2814,19 @@
         <v>48054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36849</v>
+        <v>38181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59796</v>
+        <v>60554</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3881974619630573</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2976804837710934</v>
+        <v>0.3084363013211462</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4830546789964205</v>
+        <v>0.4891754553445087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>108</v>
@@ -2835,19 +2835,19 @@
         <v>118210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>101095</v>
+        <v>100221</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135528</v>
+        <v>136372</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4310069009198735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3686065064196266</v>
+        <v>0.3654175208991188</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4941499280782672</v>
+        <v>0.4972294922052298</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>139795</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122538</v>
+        <v>122591</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156252</v>
+        <v>156679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5140672748672571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4506069967745459</v>
+        <v>0.4508027737273219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5745857947753842</v>
+        <v>0.576156531060492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2960,19 +2960,19 @@
         <v>37748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28718</v>
+        <v>29001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47349</v>
+        <v>47643</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4428072940034862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3368711968204472</v>
+        <v>0.3401968221886053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5554313517093833</v>
+        <v>0.5588730020907596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -2981,19 +2981,19 @@
         <v>177543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156618</v>
+        <v>159996</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196966</v>
+        <v>198623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4970599639544589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4384762766497588</v>
+        <v>0.4479346988916011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5514370278687754</v>
+        <v>0.556076831613829</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>132144</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>115687</v>
+        <v>115260</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149401</v>
+        <v>149348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4859327251327429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4254142052246158</v>
+        <v>0.423843468939508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5493930032254543</v>
+        <v>0.5491972262726781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -3031,19 +3031,19 @@
         <v>47500</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37899</v>
+        <v>37605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56530</v>
+        <v>56247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5571927059965138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4445686482906167</v>
+        <v>0.4411269979092404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6631288031795529</v>
+        <v>0.6598031778113947</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>174</v>
@@ -3052,19 +3052,19 @@
         <v>179644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>160221</v>
+        <v>158564</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>200569</v>
+        <v>197191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5029400360455412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4485629721312245</v>
+        <v>0.443923168386171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5615237233502411</v>
+        <v>0.5520653011083989</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>233389</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209446</v>
+        <v>211048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255817</v>
+        <v>257762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4673468888881113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4194025044968065</v>
+        <v>0.4226103316956842</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5122575966475579</v>
+        <v>0.5161535724151316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -3177,19 +3177,19 @@
         <v>150842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134741</v>
+        <v>133825</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170069</v>
+        <v>167975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5373713965387229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4800114589349068</v>
+        <v>0.4767461497901901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.605865857769044</v>
+        <v>0.5984055031892869</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>355</v>
@@ -3198,19 +3198,19 @@
         <v>384231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>356548</v>
+        <v>355041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>413794</v>
+        <v>412133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4925440158289026</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4570571564780144</v>
+        <v>0.4551253533439545</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5304413442481249</v>
+        <v>0.528311990925916</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>266002</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>243574</v>
+        <v>241629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>289945</v>
+        <v>288343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5326531111118887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4877424033524418</v>
+        <v>0.4838464275848683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5805974955031934</v>
+        <v>0.5773896683043158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -3248,19 +3248,19 @@
         <v>129862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110635</v>
+        <v>112729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145963</v>
+        <v>146879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4626286034612772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.394134142230956</v>
+        <v>0.4015944968107131</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5199885410650935</v>
+        <v>0.5232538502098099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -3269,19 +3269,19 @@
         <v>395863</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>366300</v>
+        <v>367961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>423546</v>
+        <v>425053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5074559841710974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4695586557518751</v>
+        <v>0.4716880090740843</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5429428435219855</v>
+        <v>0.5448746466560457</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>78126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65154</v>
+        <v>64989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92849</v>
+        <v>92740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3596624972219382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2999427410704132</v>
+        <v>0.2991866687540181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4274408740710636</v>
+        <v>0.4269421905291464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>103</v>
@@ -3394,19 +3394,19 @@
         <v>112511</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97271</v>
+        <v>96953</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128621</v>
+        <v>127190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5222252067646397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4514849574090467</v>
+        <v>0.4500114478870995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5970010778125734</v>
+        <v>0.5903586282965267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>180</v>
@@ -3415,19 +3415,19 @@
         <v>190637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169400</v>
+        <v>169213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212122</v>
+        <v>212046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.440610611595311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3915260227363496</v>
+        <v>0.3910951502068539</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4902685440426838</v>
+        <v>0.4900922817785878</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>139094</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124371</v>
+        <v>124480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152066</v>
+        <v>152231</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6403375027780618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5725591259289364</v>
+        <v>0.5730578094708536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7000572589295869</v>
+        <v>0.7008133312459818</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>94</v>
@@ -3465,19 +3465,19 @@
         <v>102935</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86825</v>
+        <v>88256</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>118175</v>
+        <v>118493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4777747932353603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4029989221874266</v>
+        <v>0.409641371703473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5485150425909533</v>
+        <v>0.5499885521129004</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -3486,19 +3486,19 @@
         <v>242028</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220543</v>
+        <v>220619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263265</v>
+        <v>263452</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5593893884046891</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5097314559573162</v>
+        <v>0.5099077182214122</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6084739772636505</v>
+        <v>0.6089048497931462</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>12485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6999</v>
+        <v>7668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19564</v>
+        <v>19860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1995941673695033</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1118970438464212</v>
+        <v>0.1225892612752876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3127634139874984</v>
+        <v>0.3175013957240461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -3611,19 +3611,19 @@
         <v>67117</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54243</v>
+        <v>53530</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80673</v>
+        <v>80196</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4087783697695194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3303685557552226</v>
+        <v>0.3260238531981907</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4913386719286489</v>
+        <v>0.4884355725257808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -3632,19 +3632,19 @@
         <v>79602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66609</v>
+        <v>66410</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94542</v>
+        <v>94315</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3510710871425552</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2937668591623952</v>
+        <v>0.2928873564678616</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4169583183200252</v>
+        <v>0.4159586146831623</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>50066</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42987</v>
+        <v>42691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55552</v>
+        <v>54883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8004058326304967</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6872365860125018</v>
+        <v>0.6824986042759532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8881029561535788</v>
+        <v>0.8774107387247121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -3682,19 +3682,19 @@
         <v>97073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83517</v>
+        <v>83994</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109947</v>
+        <v>110660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5912216302304806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5086613280713511</v>
+        <v>0.5115644274742189</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6696314442447774</v>
+        <v>0.6739761468018093</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -3703,19 +3703,19 @@
         <v>147139</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>132199</v>
+        <v>132426</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>160132</v>
+        <v>160331</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6489289128574448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5830416816799752</v>
+        <v>0.5840413853168377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7062331408376048</v>
+        <v>0.7071126435321387</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>626595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>590496</v>
+        <v>587825</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>666318</v>
+        <v>664802</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4641848110902436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4374430187266132</v>
+        <v>0.4354640964670948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4936117421548511</v>
+        <v>0.4924888393295644</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>455</v>
@@ -3828,19 +3828,19 @@
         <v>496158</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>468496</v>
+        <v>463097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>528981</v>
+        <v>527235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5124244873077142</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4838550629712459</v>
+        <v>0.4782800033068915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5463238704204896</v>
+        <v>0.5445205164082414</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1030</v>
@@ -3849,19 +3849,19 @@
         <v>1122752</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1071978</v>
+        <v>1070473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1170087</v>
+        <v>1175482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4843338933472967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4624307860442842</v>
+        <v>0.4617817459598096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.504753075495658</v>
+        <v>0.5070806454521475</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>723287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>683564</v>
+        <v>685080</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>759386</v>
+        <v>762057</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5358151889097564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.506388257845149</v>
+        <v>0.5075111606704358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5625569812733869</v>
+        <v>0.5645359035329054</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>437</v>
@@ -3899,19 +3899,19 @@
         <v>472098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>439275</v>
+        <v>441021</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>499760</v>
+        <v>505159</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4875755126922858</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4536761295795109</v>
+        <v>0.4554794835917587</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5161449370287545</v>
+        <v>0.5217199966931085</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1128</v>
@@ -3920,19 +3920,19 @@
         <v>1195385</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1148050</v>
+        <v>1142655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1246159</v>
+        <v>1247664</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5156661066527033</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4952469245043421</v>
+        <v>0.4929193545478526</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5375692139557159</v>
+        <v>0.5382182540401904</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>59640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49095</v>
+        <v>48881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69265</v>
+        <v>70174</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5609266238901587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4617448033099011</v>
+        <v>0.4597366097778671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6514527674175414</v>
+        <v>0.6600042443846986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -4287,19 +4287,19 @@
         <v>35943</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27512</v>
+        <v>28475</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43734</v>
+        <v>44516</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5406540410200293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4138362411758814</v>
+        <v>0.4283182485729465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6578348298637757</v>
+        <v>0.6695975185233832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -4308,19 +4308,19 @@
         <v>95583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81450</v>
+        <v>82241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109441</v>
+        <v>109797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5531273762132526</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4713383347854112</v>
+        <v>0.4759200756691007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6333223893949357</v>
+        <v>0.6353803746351632</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>46684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37059</v>
+        <v>36150</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57229</v>
+        <v>57443</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4390733761098413</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3485472325824586</v>
+        <v>0.3399957556153014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5382551966900989</v>
+        <v>0.5402633902221328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -4358,19 +4358,19 @@
         <v>30538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22747</v>
+        <v>21965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38969</v>
+        <v>38006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4593459589799707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3421651701362242</v>
+        <v>0.3304024814766173</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5861637588241184</v>
+        <v>0.5716817514270536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -4379,19 +4379,19 @@
         <v>77222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63364</v>
+        <v>63008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91355</v>
+        <v>90564</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4468726237867474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3666776106050643</v>
+        <v>0.3646196253648367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5286616652145886</v>
+        <v>0.5240799243308992</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>52226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41860</v>
+        <v>41719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64190</v>
+        <v>62476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4993239582711809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4002120557872634</v>
+        <v>0.3988684835323253</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6137093986617369</v>
+        <v>0.5973211741847565</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -4504,19 +4504,19 @@
         <v>42871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33223</v>
+        <v>33408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52899</v>
+        <v>53547</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4284625151661298</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3320411226868876</v>
+        <v>0.3338853746566299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5286883840717679</v>
+        <v>0.535167351161536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -4525,19 +4525,19 @@
         <v>95097</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79486</v>
+        <v>81492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109348</v>
+        <v>109839</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4646787398732034</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3883982710785285</v>
+        <v>0.3982027732663904</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5343168833794213</v>
+        <v>0.5367157412529905</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>52368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40404</v>
+        <v>42118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>62734</v>
+        <v>62875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5006760417288191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.386290601338263</v>
+        <v>0.4026788258152435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5997879442127363</v>
+        <v>0.6011315164676746</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -4575,19 +4575,19 @@
         <v>57186</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47158</v>
+        <v>46510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>66834</v>
+        <v>66649</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5715374848338702</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.471311615928232</v>
+        <v>0.464832648838464</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6679588773131123</v>
+        <v>0.6661146253433701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -4596,19 +4596,19 @@
         <v>109553</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95302</v>
+        <v>94811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125164</v>
+        <v>123158</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5353212601267966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4656831166205788</v>
+        <v>0.4632842587470095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6116017289214715</v>
+        <v>0.6017972267336096</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>99781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84817</v>
+        <v>84558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115015</v>
+        <v>114962</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.460373908754082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3913341933720618</v>
+        <v>0.3901387357805811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5306635467741582</v>
+        <v>0.530421382806549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -4721,19 +4721,19 @@
         <v>27904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20118</v>
+        <v>20692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35276</v>
+        <v>35482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5314763643559663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3831687009427888</v>
+        <v>0.3941034532170798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6718906558920579</v>
+        <v>0.6758053703547249</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -4742,19 +4742,19 @@
         <v>127685</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111789</v>
+        <v>110697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144224</v>
+        <v>144018</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4742392080811376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4151988519170855</v>
+        <v>0.4111449628966253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5356678305254572</v>
+        <v>0.5349042414946302</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>116957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101723</v>
+        <v>101776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>131921</v>
+        <v>132180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.539626091245918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4693364532258419</v>
+        <v>0.469578617193451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6086658066279382</v>
+        <v>0.609861264219419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -4792,19 +4792,19 @@
         <v>24599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17227</v>
+        <v>17021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32385</v>
+        <v>31811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4685236356440337</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3281093441079422</v>
+        <v>0.3241946296452752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6168312990572112</v>
+        <v>0.6058965467829202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>133</v>
@@ -4813,19 +4813,19 @@
         <v>141556</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125017</v>
+        <v>125223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157452</v>
+        <v>158544</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5257607919188624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4643321694745429</v>
+        <v>0.4650957585053695</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5848011480829147</v>
+        <v>0.5888550371033747</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>185171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162924</v>
+        <v>165118</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204615</v>
+        <v>205609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4304364620122261</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3787220697198571</v>
+        <v>0.3838215131860468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4756333496426195</v>
+        <v>0.4779448912208004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -4938,19 +4938,19 @@
         <v>145631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128627</v>
+        <v>128112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>163452</v>
+        <v>162811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.461130153430891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4072896675509078</v>
+        <v>0.4056588948385884</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5175601949743248</v>
+        <v>0.5155307385461385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>319</v>
@@ -4959,19 +4959,19 @@
         <v>330802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>305897</v>
+        <v>306047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>357666</v>
+        <v>362302</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4434302816484169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4100464055113887</v>
+        <v>0.4102471162890807</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4794406057885683</v>
+        <v>0.4856546423793114</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>245023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225579</v>
+        <v>224585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>267270</v>
+        <v>265076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5695635379877739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5243666503573805</v>
+        <v>0.5220551087791996</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.621277930280143</v>
+        <v>0.6161784868139532</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -5009,19 +5009,19 @@
         <v>170182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152361</v>
+        <v>153002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187186</v>
+        <v>187701</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.538869846569109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4824398050256751</v>
+        <v>0.4844692614538615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5927103324490922</v>
+        <v>0.5943411051614116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>396</v>
@@ -5030,19 +5030,19 @@
         <v>415205</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>388341</v>
+        <v>383705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>440110</v>
+        <v>439960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5565697183515831</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5205593942114318</v>
+        <v>0.5143453576206891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5899535944886114</v>
+        <v>0.5897528837109194</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>87509</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72149</v>
+        <v>72674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102008</v>
+        <v>103697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3627709427097273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2990948140100233</v>
+        <v>0.3012732286525598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4228774533504061</v>
+        <v>0.4298782879955154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -5155,19 +5155,19 @@
         <v>96213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81564</v>
+        <v>82177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111603</v>
+        <v>111087</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4473081572038874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3792001091209721</v>
+        <v>0.3820499515834875</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5188548749333651</v>
+        <v>0.5164590638452474</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -5176,19 +5176,19 @@
         <v>183722</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162047</v>
+        <v>164442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204025</v>
+        <v>207304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4026192901815421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3551196457140783</v>
+        <v>0.36036702075155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4471126547127175</v>
+        <v>0.4542979873996267</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>153714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139215</v>
+        <v>137526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169074</v>
+        <v>168549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6372290572902727</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5771225466495939</v>
+        <v>0.5701217120044846</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7009051859899766</v>
+        <v>0.6987267713474401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -5226,19 +5226,19 @@
         <v>118881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>103491</v>
+        <v>104007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133530</v>
+        <v>132917</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5526918427961126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4811451250666352</v>
+        <v>0.4835409361547527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6207998908790281</v>
+        <v>0.6179500484165125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>255</v>
@@ -5247,19 +5247,19 @@
         <v>272595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>252292</v>
+        <v>249013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>294270</v>
+        <v>291875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5973807098184579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5528873452872826</v>
+        <v>0.5457020126003733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6448803542859217</v>
+        <v>0.6396329792484501</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>19747</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12858</v>
+        <v>13044</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27653</v>
+        <v>28103</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2744310263944326</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1786904137529699</v>
+        <v>0.1812756923199616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3843063965069237</v>
+        <v>0.39055946123645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -5372,19 +5372,19 @@
         <v>60846</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48568</v>
+        <v>49499</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74196</v>
+        <v>75594</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3536928895007153</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.282320345953093</v>
+        <v>0.2877369216352552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4312990554378586</v>
+        <v>0.4394254666066322</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -5393,19 +5393,19 @@
         <v>80592</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67784</v>
+        <v>65842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97074</v>
+        <v>95646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3303172831184742</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2778211722348867</v>
+        <v>0.269859535669329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3978676998039818</v>
+        <v>0.3920169666657645</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>52208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44302</v>
+        <v>43852</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59097</v>
+        <v>58911</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7255689736055674</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6156936034930762</v>
+        <v>0.6094405387635493</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8213095862470295</v>
+        <v>0.8187243076800382</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>108</v>
@@ -5443,19 +5443,19 @@
         <v>111184</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97834</v>
+        <v>96436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123462</v>
+        <v>122531</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6463071104992847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5687009445621414</v>
+        <v>0.5605745333933677</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7176796540469069</v>
+        <v>0.7122630783647448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>157</v>
@@ -5464,19 +5464,19 @@
         <v>163393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>146911</v>
+        <v>148339</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176201</v>
+        <v>178143</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6696827168815258</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6021323001960179</v>
+        <v>0.6079830333342358</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7221788277651132</v>
+        <v>0.730140464330671</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>504072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>467823</v>
+        <v>469832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>538997</v>
+        <v>539577</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4304536580205028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3994985220488304</v>
+        <v>0.401214021875598</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4602779856163347</v>
+        <v>0.4607726146618171</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>395</v>
@@ -5589,19 +5589,19 @@
         <v>409409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.444054082612383</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>864</v>
@@ -5610,19 +5610,19 @@
         <v>913481</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>865781</v>
+        <v>871444</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>958282</v>
+        <v>961886</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4364447096141115</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4136543947614562</v>
+        <v>0.416360423771235</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4578498862949006</v>
+        <v>0.4595716115720979</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>666954</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>632029</v>
+        <v>631449</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>703203</v>
+        <v>701194</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5695463419794972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5397220143836653</v>
+        <v>0.5392273853381829</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6005014779511698</v>
+        <v>0.598785978124402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>498</v>
@@ -5660,19 +5660,19 @@
         <v>512570</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>481793</v>
+        <v>482858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>544588</v>
+        <v>543482</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5559459173876169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5225636371784441</v>
+        <v>0.5237193788519571</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5906729110379787</v>
+        <v>0.5894729150722159</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1119</v>
@@ -5681,19 +5681,19 @@
         <v>1179524</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1134723</v>
+        <v>1131119</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227224</v>
+        <v>1221561</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5635552903858885</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5421501137050992</v>
+        <v>0.5404283884279021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5863456052385437</v>
+        <v>0.5836395762287651</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>43740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33852</v>
+        <v>34330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53027</v>
+        <v>53103</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4639274317267928</v>
+        <v>0.463927431726793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3590491822997355</v>
+        <v>0.3641216659217173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5624372717343015</v>
+        <v>0.5632404360833202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -6048,19 +6048,19 @@
         <v>34715</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27747</v>
+        <v>27496</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41723</v>
+        <v>41504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4832003576728143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3862156201025488</v>
+        <v>0.3827239005705663</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5807523108538351</v>
+        <v>0.5777014801412704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -6069,19 +6069,19 @@
         <v>78454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66033</v>
+        <v>65247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89488</v>
+        <v>90639</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4722623654140279</v>
+        <v>0.4722623654140281</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3974951271658618</v>
+        <v>0.3927578573963031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.538684514985592</v>
+        <v>0.5456101602937071</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>50541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41254</v>
+        <v>41178</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60429</v>
+        <v>59951</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5360725682732068</v>
+        <v>0.536072568273207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4375627282656984</v>
+        <v>0.4367595639166799</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6409508177002647</v>
+        <v>0.6358783340782825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -6119,19 +6119,19 @@
         <v>37128</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30120</v>
+        <v>30339</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44096</v>
+        <v>44347</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5167996423271859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4192476891461643</v>
+        <v>0.4222985198587292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6137843798974508</v>
+        <v>0.6172760994294334</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>102</v>
@@ -6140,19 +6140,19 @@
         <v>87670</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76636</v>
+        <v>75485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100091</v>
+        <v>100877</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.527737634585972</v>
+        <v>0.5277376345859721</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4613154850144081</v>
+        <v>0.454389839706293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6025048728341382</v>
+        <v>0.607242142603697</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>37324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27138</v>
+        <v>27655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46591</v>
+        <v>48294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3937078927376843</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2862626955167531</v>
+        <v>0.2917239505824583</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4914651789338523</v>
+        <v>0.5094294019635294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -6265,19 +6265,19 @@
         <v>39889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30478</v>
+        <v>31291</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48035</v>
+        <v>48665</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4311909997454688</v>
+        <v>0.4311909997454687</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3294586220824098</v>
+        <v>0.3382484357478837</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5192453678753834</v>
+        <v>0.5260533219309718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -6286,19 +6286,19 @@
         <v>77213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62674</v>
+        <v>64243</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90956</v>
+        <v>90400</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4122202771171082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3346029735408064</v>
+        <v>0.3429777628444581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4855929118064314</v>
+        <v>0.4826232098870932</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>57476</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48209</v>
+        <v>46506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67662</v>
+        <v>67145</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6062921072623156</v>
+        <v>0.6062921072623157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5085348210661478</v>
+        <v>0.4905705980364708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.713737304483247</v>
+        <v>0.708276049417542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -6336,19 +6336,19 @@
         <v>52620</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44474</v>
+        <v>43844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62031</v>
+        <v>61218</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5688090002545312</v>
+        <v>0.5688090002545311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4807546321246166</v>
+        <v>0.4739466780690283</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6705413779175901</v>
+        <v>0.6617515642521165</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>124</v>
@@ -6357,19 +6357,19 @@
         <v>110096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96353</v>
+        <v>96909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>124635</v>
+        <v>123066</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5877797228828917</v>
+        <v>0.5877797228828918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.514407088193569</v>
+        <v>0.5173767901129068</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6653970264591936</v>
+        <v>0.6570222371555418</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>42756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32091</v>
+        <v>31473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55342</v>
+        <v>54369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3350408062846048</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2514677385648332</v>
+        <v>0.2466287568992557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4336656937012641</v>
+        <v>0.4260404222511044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -6482,19 +6482,19 @@
         <v>12547</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8705</v>
+        <v>8309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16722</v>
+        <v>16733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4590240854314699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3184850226790581</v>
+        <v>0.3039912015373993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6117492845578693</v>
+        <v>0.6121698673273788</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -6503,19 +6503,19 @@
         <v>55303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44709</v>
+        <v>44133</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68502</v>
+        <v>68737</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3569120569514512</v>
+        <v>0.3569120569514513</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2885444930179661</v>
+        <v>0.2848270016667656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4420943129475819</v>
+        <v>0.443614635314176</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>84858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72272</v>
+        <v>73245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95523</v>
+        <v>96141</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6649591937153952</v>
+        <v>0.6649591937153954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5663343062987358</v>
+        <v>0.5739595777488957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7485322614351667</v>
+        <v>0.7533712431007443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -6553,19 +6553,19 @@
         <v>14787</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10612</v>
+        <v>10601</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18629</v>
+        <v>19025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5409759145685301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3882507154421308</v>
+        <v>0.3878301326726213</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6815149773209417</v>
+        <v>0.6960087984626007</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>107</v>
@@ -6574,19 +6574,19 @@
         <v>99645</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86446</v>
+        <v>86211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>110239</v>
+        <v>110815</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6430879430485488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5579056870524182</v>
+        <v>0.5563853646858238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7114555069820337</v>
+        <v>0.7151729983332343</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>132545</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112667</v>
+        <v>111928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154399</v>
+        <v>153432</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3648449548840793</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3101283471144015</v>
+        <v>0.3080934390453759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4250000960980057</v>
+        <v>0.4223380036299844</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -6699,19 +6699,19 @@
         <v>108747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94443</v>
+        <v>94673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121572</v>
+        <v>122316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.471636587458653</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4096021293136414</v>
+        <v>0.4106001487781883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5272607513451162</v>
+        <v>0.5304884714925794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>271</v>
@@ -6720,19 +6720,19 @@
         <v>241292</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217646</v>
+        <v>215993</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>268176</v>
+        <v>266920</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4063077953613252</v>
+        <v>0.4063077953613251</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3664914210394759</v>
+        <v>0.3637080551093491</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4515780973229449</v>
+        <v>0.4494632240860046</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>230746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>208892</v>
+        <v>209859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250624</v>
+        <v>251363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6351550451159206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5749999039019943</v>
+        <v>0.5776619963700157</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6898716528855984</v>
+        <v>0.6919065609546242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -6770,19 +6770,19 @@
         <v>121826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109001</v>
+        <v>108257</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136130</v>
+        <v>135900</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.528363412541347</v>
+        <v>0.5283634125413471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4727392486548838</v>
+        <v>0.4695115285074205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5903978706863587</v>
+        <v>0.5893998512218115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>353</v>
@@ -6791,19 +6791,19 @@
         <v>352572</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>325688</v>
+        <v>326944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>376218</v>
+        <v>377871</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.593692204638675</v>
+        <v>0.5936922046386749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5484219026770565</v>
+        <v>0.5505367759139956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6335085789605259</v>
+        <v>0.6362919448906512</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>57735</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44025</v>
+        <v>43961</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73663</v>
+        <v>73175</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3212265110781948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.244945853718448</v>
+        <v>0.2445881931287945</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4098461086434325</v>
+        <v>0.4071322350241919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -6916,19 +6916,19 @@
         <v>72374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61017</v>
+        <v>60887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85519</v>
+        <v>84249</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4190817892320021</v>
+        <v>0.419081789232002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3533198790186048</v>
+        <v>0.3525644139654451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4951948821607953</v>
+        <v>0.4878407716980532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -6937,19 +6937,19 @@
         <v>130109</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112533</v>
+        <v>110976</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150088</v>
+        <v>148573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3691773020955695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.319307282516648</v>
+        <v>0.3148897840269488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4258672434407382</v>
+        <v>0.4215699330164169</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>121998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106070</v>
+        <v>106558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135708</v>
+        <v>135772</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6787734889218051</v>
+        <v>0.678773488921805</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5901538913565676</v>
+        <v>0.5928677649758084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7550541462815521</v>
+        <v>0.7554118068712056</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -6987,19 +6987,19 @@
         <v>100323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87178</v>
+        <v>88448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111680</v>
+        <v>111810</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.580918210767998</v>
+        <v>0.5809182107679979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5048051178392039</v>
+        <v>0.5121592283019465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6466801209813942</v>
+        <v>0.6474355860345543</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -7008,19 +7008,19 @@
         <v>222320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>202341</v>
+        <v>203856</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239896</v>
+        <v>241453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6308226979044305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5741327565592618</v>
+        <v>0.5784300669835828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6806927174833519</v>
+        <v>0.6851102159730512</v>
       </c>
     </row>
     <row r="18">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9148</v>
+        <v>8780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07479483887394549</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3903081635631095</v>
+        <v>0.3746050318141036</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -7133,19 +7133,19 @@
         <v>34745</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26100</v>
+        <v>26035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44335</v>
+        <v>44755</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3853417820808829</v>
+        <v>0.3853417820808828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2894635405057772</v>
+        <v>0.2887410596223449</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4917014813738989</v>
+        <v>0.4963578565860514</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7154,19 +7154,19 @@
         <v>36499</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26663</v>
+        <v>26825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47777</v>
+        <v>47690</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3212699738875178</v>
+        <v>0.3212699738875177</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2346924871863436</v>
+        <v>0.2361220301830076</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4205449264927468</v>
+        <v>0.4197819641268767</v>
       </c>
     </row>
     <row r="20">
@@ -7183,7 +7183,7 @@
         <v>21686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14291</v>
+        <v>14659</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>23439</v>
@@ -7192,7 +7192,7 @@
         <v>0.9252051611260546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6096918364368888</v>
+        <v>0.6253949681858965</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7204,19 +7204,19 @@
         <v>55422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45832</v>
+        <v>45412</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64067</v>
+        <v>64132</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6146582179191173</v>
+        <v>0.6146582179191171</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5082985186261014</v>
+        <v>0.5036421434139486</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7105364594942226</v>
+        <v>0.711258940377655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>71</v>
@@ -7225,19 +7225,19 @@
         <v>77108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65830</v>
+        <v>65917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86944</v>
+        <v>86782</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6787300261124821</v>
+        <v>0.6787300261124822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.579455073507253</v>
+        <v>0.5802180358731232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7653075128136564</v>
+        <v>0.7638779698169924</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>315851</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>287234</v>
+        <v>286483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>351024</v>
+        <v>352549</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3576391003455797</v>
+        <v>0.3576391003455798</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3252355433452192</v>
+        <v>0.3243851387059257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3974654231970502</v>
+        <v>0.3991923272855421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>413</v>
@@ -7350,19 +7350,19 @@
         <v>303017</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>277554</v>
+        <v>279146</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>326149</v>
+        <v>327813</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4422804713758723</v>
+        <v>0.4422804713758722</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4051161210422112</v>
+        <v>0.4074398670250294</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4760447384976907</v>
+        <v>0.478473891139217</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>704</v>
@@ -7371,19 +7371,19 @@
         <v>618868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582512</v>
+        <v>580621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>659992</v>
+        <v>656775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3946157549721047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3714338044532534</v>
+        <v>0.3702277032509774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4208381315888757</v>
+        <v>0.4187870391243984</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>567306</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>532133</v>
+        <v>530608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>595923</v>
+        <v>596674</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6423608996544202</v>
+        <v>0.6423608996544203</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6025345768029499</v>
+        <v>0.600807672714458</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6747644566547808</v>
+        <v>0.6756148612940743</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>511</v>
@@ -7421,19 +7421,19 @@
         <v>382106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>358974</v>
+        <v>357310</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>407569</v>
+        <v>405977</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5577195286241279</v>
+        <v>0.5577195286241277</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5239552615023094</v>
+        <v>0.5215261088607831</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5948838789577887</v>
+        <v>0.5925601329749707</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1017</v>
@@ -7442,19 +7442,19 @@
         <v>949412</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>908288</v>
+        <v>911505</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>985768</v>
+        <v>987659</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6053842450278955</v>
+        <v>0.6053842450278953</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5791618684111244</v>
+        <v>0.5812129608756026</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6285661955467469</v>
+        <v>0.6297722967490226</v>
       </c>
     </row>
     <row r="24">
